--- a/xlsx/datasample.xlsx
+++ b/xlsx/datasample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA_model\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC08692-B407-4AA8-BE45-C0B29EFA5BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4E1B11-CF8D-4604-AFDA-F663BD509140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21390" yWindow="-21930" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16950" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
       <sheetName val="排出量算出のデータ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="D2">
             <v>1</v>
@@ -159,7 +159,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1020,7 +1020,7 @@
         <v>125378.043949336</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C23" si="1">_xlfn.FORECAST.LINEAR(A14,$C$43:$C$44,$A$43:$A$44)</f>
+        <f t="shared" ref="C14:C21" si="1">_xlfn.FORECAST.LINEAR(A14,$C$43:$C$44,$A$43:$A$44)</f>
         <v>0.98000000000000043</v>
       </c>
       <c r="D14">
@@ -1468,7 +1468,7 @@
         <v>109794.573642716</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
+        <f>_xlfn.FORECAST.LINEAR(A42,$C$44:$C$45,$A$44:$A$45)</f>
         <v>0.70000000000000284</v>
       </c>
       <c r="D42">
